--- a/kiliexcel.xlsx
+++ b/kiliexcel.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Михаил\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:140008_{D3C2EADE-EB5A-48EB-8666-2F473E8A0757}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:140008_{70B0A038-40E4-4D72-BC02-86811CB4843E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1-2" sheetId="1" r:id="rId1"/>
@@ -3165,18 +3165,12 @@
     <t>Насекомое</t>
   </si>
   <si>
-    <t>абстрактный обьект</t>
-  </si>
-  <si>
     <t>Participant3</t>
   </si>
   <si>
     <t>Время</t>
   </si>
   <si>
-    <t>обьект</t>
-  </si>
-  <si>
     <t>место</t>
   </si>
   <si>
@@ -3202,6 +3196,12 @@
   </si>
   <si>
     <t>Count of Participant3</t>
+  </si>
+  <si>
+    <t>объект</t>
+  </si>
+  <si>
+    <t>абстрактный объект</t>
   </si>
 </sst>
 </file>
@@ -5609,7 +5609,7 @@
                     <c:v>NA</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>абстрактный обьект</c:v>
+                    <c:v>абстрактный объект</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>Лицо</c:v>
@@ -6002,7 +6002,7 @@
                     <c:v>Лицо</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>обьект</c:v>
+                    <c:v>объект</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>NA</c:v>
@@ -6017,7 +6017,7 @@
                     <c:v>Лицо</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>обьект</c:v>
+                    <c:v>объект</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -6410,7 +6410,7 @@
                     <c:v>Лицо</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>обьект</c:v>
+                    <c:v>объект</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>NA</c:v>
@@ -6428,7 +6428,7 @@
                     <c:v>место</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>обьект</c:v>
+                    <c:v>объект</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -11166,13 +11166,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>174625</xdr:colOff>
+      <xdr:colOff>174624</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>593725</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
@@ -13565,7 +13565,7 @@
     <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="6">
         <item x="0"/>
-        <item x="2"/>
+        <item n="абстрактный объект" x="2"/>
         <item x="1"/>
         <item x="4"/>
         <item x="3"/>
@@ -13688,7 +13688,7 @@
         <item x="2"/>
         <item x="5"/>
         <item x="0"/>
-        <item x="3"/>
+        <item n="объект" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -13815,7 +13815,7 @@
         <item x="6"/>
         <item x="0"/>
         <item x="4"/>
-        <item x="3"/>
+        <item n="объект" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -14452,7 +14452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="T2" workbookViewId="0">
       <selection activeCell="S51" sqref="S51"/>
     </sheetView>
   </sheetViews>
@@ -14559,7 +14559,7 @@
         <v>521</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
@@ -14622,7 +14622,7 @@
       </c>
       <c r="U2">
         <f ca="1">RAND()</f>
-        <v>0.75665085896206208</v>
+        <v>7.1651619726949223E-2</v>
       </c>
       <c r="V2" t="s">
         <v>508</v>
@@ -14703,7 +14703,7 @@
       </c>
       <c r="U3">
         <f ca="1">RAND()</f>
-        <v>0.16490441731513317</v>
+        <v>0.22746260476201585</v>
       </c>
       <c r="V3" t="s">
         <v>508</v>
@@ -14784,7 +14784,7 @@
       </c>
       <c r="U4">
         <f ca="1">RAND()</f>
-        <v>0.81533325429700709</v>
+        <v>0.72929333923029305</v>
       </c>
       <c r="V4" t="s">
         <v>508</v>
@@ -14865,7 +14865,7 @@
       </c>
       <c r="U5">
         <f ca="1">RAND()</f>
-        <v>0.15201601168538181</v>
+        <v>3.3251782891684734E-2</v>
       </c>
       <c r="V5" t="s">
         <v>508</v>
@@ -14880,10 +14880,10 @@
         <v>566</v>
       </c>
       <c r="Z5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AA5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.35">
@@ -14946,7 +14946,7 @@
       </c>
       <c r="U6">
         <f ca="1">RAND()</f>
-        <v>0.71092274768610308</v>
+        <v>0.97866132884268608</v>
       </c>
       <c r="V6" t="s">
         <v>508</v>
@@ -15027,7 +15027,7 @@
       </c>
       <c r="U7">
         <f ca="1">RAND()</f>
-        <v>0.11067680426791526</v>
+        <v>0.23721823633787864</v>
       </c>
       <c r="V7" t="s">
         <v>508</v>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="U8">
         <f ca="1">RAND()</f>
-        <v>0.5302554201087456</v>
+        <v>0.7986451663156483</v>
       </c>
       <c r="V8" t="s">
         <v>508</v>
@@ -15189,7 +15189,7 @@
       </c>
       <c r="U9">
         <f ca="1">RAND()</f>
-        <v>0.3217658555723022</v>
+        <v>0.65213859802022123</v>
       </c>
       <c r="V9" t="s">
         <v>508</v>
@@ -15270,7 +15270,7 @@
       </c>
       <c r="U10">
         <f ca="1">RAND()</f>
-        <v>0.76737074057404486</v>
+        <v>0.11819477668800338</v>
       </c>
       <c r="V10" t="s">
         <v>508</v>
@@ -15285,10 +15285,10 @@
         <v>566</v>
       </c>
       <c r="Z10" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AA10" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
@@ -15351,7 +15351,7 @@
       </c>
       <c r="U11">
         <f ca="1">RAND()</f>
-        <v>0.14894280852254294</v>
+        <v>0.55089287172201329</v>
       </c>
       <c r="V11" t="s">
         <v>508</v>
@@ -15366,10 +15366,10 @@
         <v>520</v>
       </c>
       <c r="Z11" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AA11" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
@@ -15432,7 +15432,7 @@
       </c>
       <c r="U12">
         <f ca="1">RAND()</f>
-        <v>0.459223295524255</v>
+        <v>0.6862214331453077</v>
       </c>
       <c r="V12" t="s">
         <v>508</v>
@@ -15450,7 +15450,7 @@
         <v>520</v>
       </c>
       <c r="AA12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
@@ -15513,7 +15513,7 @@
       </c>
       <c r="U13">
         <f ca="1">RAND()</f>
-        <v>0.56239941609550959</v>
+        <v>7.0918841702808599E-2</v>
       </c>
       <c r="V13" t="s">
         <v>508</v>
@@ -15528,10 +15528,10 @@
         <v>520</v>
       </c>
       <c r="Z13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AA13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
@@ -15594,7 +15594,7 @@
       </c>
       <c r="U14">
         <f ca="1">RAND()</f>
-        <v>0.3667802245820414</v>
+        <v>0.67842085819104925</v>
       </c>
       <c r="V14" t="s">
         <v>508</v>
@@ -15609,10 +15609,10 @@
         <v>520</v>
       </c>
       <c r="Z14" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AA14" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
@@ -15675,7 +15675,7 @@
       </c>
       <c r="U15">
         <f ca="1">RAND()</f>
-        <v>0.45543836474414934</v>
+        <v>0.31652013665558376</v>
       </c>
       <c r="V15" t="s">
         <v>508</v>
@@ -15756,7 +15756,7 @@
       </c>
       <c r="U16">
         <f ca="1">RAND()</f>
-        <v>0.50834933698225182</v>
+        <v>0.71504562574337716</v>
       </c>
       <c r="V16" t="s">
         <v>508</v>
@@ -15768,10 +15768,10 @@
         <v>514</v>
       </c>
       <c r="Y16" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="Z16" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AA16" t="s">
         <v>520</v>
@@ -15837,7 +15837,7 @@
       </c>
       <c r="U17">
         <f ca="1">RAND()</f>
-        <v>0.63058002260635493</v>
+        <v>0.49207956046984103</v>
       </c>
       <c r="V17" t="s">
         <v>508</v>
@@ -15918,7 +15918,7 @@
       </c>
       <c r="U18">
         <f ca="1">RAND()</f>
-        <v>0.3130021837326401</v>
+        <v>0.82524991621077159</v>
       </c>
       <c r="V18" t="s">
         <v>508</v>
@@ -15999,7 +15999,7 @@
       </c>
       <c r="U19">
         <f ca="1">RAND()</f>
-        <v>0.83147585978010552</v>
+        <v>0.36393495855498892</v>
       </c>
       <c r="V19" t="s">
         <v>508</v>
@@ -16014,10 +16014,10 @@
         <v>566</v>
       </c>
       <c r="Z19" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AA19" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.35">
@@ -16080,7 +16080,7 @@
       </c>
       <c r="U20">
         <f ca="1">RAND()</f>
-        <v>0.10973886109765563</v>
+        <v>6.1707881597812264E-3</v>
       </c>
       <c r="V20" t="s">
         <v>508</v>
@@ -16095,7 +16095,7 @@
         <v>520</v>
       </c>
       <c r="Z20" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AA20" t="s">
         <v>520</v>
@@ -16161,7 +16161,7 @@
       </c>
       <c r="U21">
         <f ca="1">RAND()</f>
-        <v>0.86293215674340829</v>
+        <v>0.39580566457470301</v>
       </c>
       <c r="V21" t="s">
         <v>508</v>
@@ -16242,7 +16242,7 @@
       </c>
       <c r="U22">
         <f ca="1">RAND()</f>
-        <v>0.48096011265552407</v>
+        <v>0.80003128873391627</v>
       </c>
       <c r="V22" t="s">
         <v>508</v>
@@ -16323,7 +16323,7 @@
       </c>
       <c r="U23">
         <f ca="1">RAND()</f>
-        <v>0.31685185829017304</v>
+        <v>0.3705217572621291</v>
       </c>
       <c r="V23" t="s">
         <v>508</v>
@@ -16404,7 +16404,7 @@
       </c>
       <c r="U24">
         <f ca="1">RAND()</f>
-        <v>0.24515306743061882</v>
+        <v>0.90719329251515179</v>
       </c>
       <c r="V24" t="s">
         <v>508</v>
@@ -16485,7 +16485,7 @@
       </c>
       <c r="U25">
         <f ca="1">RAND()</f>
-        <v>0.55125089410729411</v>
+        <v>0.43121081890430135</v>
       </c>
       <c r="V25" t="s">
         <v>508</v>
@@ -16566,7 +16566,7 @@
       </c>
       <c r="U26">
         <f ca="1">RAND()</f>
-        <v>0.77375686078255113</v>
+        <v>0.47150695532909492</v>
       </c>
       <c r="V26" t="s">
         <v>508</v>
@@ -16581,7 +16581,7 @@
         <v>567</v>
       </c>
       <c r="Z26" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AA26" t="s">
         <v>520</v>
@@ -16647,7 +16647,7 @@
       </c>
       <c r="U27">
         <f ca="1">RAND()</f>
-        <v>0.81898571191381819</v>
+        <v>0.21349347198628332</v>
       </c>
       <c r="V27" t="s">
         <v>507</v>
@@ -16662,10 +16662,10 @@
         <v>566</v>
       </c>
       <c r="Z27" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AA27" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.35">
@@ -16728,7 +16728,7 @@
       </c>
       <c r="U28" s="9">
         <f ca="1">RAND()</f>
-        <v>0.19382380996308612</v>
+        <v>0.43332772250059626</v>
       </c>
       <c r="V28" t="s">
         <v>507</v>
@@ -16809,7 +16809,7 @@
       </c>
       <c r="U29" s="9">
         <f ca="1">RAND()</f>
-        <v>0.34553285541123269</v>
+        <v>0.14968900548332498</v>
       </c>
       <c r="V29" t="s">
         <v>507</v>
@@ -16824,10 +16824,10 @@
         <v>520</v>
       </c>
       <c r="Z29" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AA29" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.35">
@@ -16890,7 +16890,7 @@
       </c>
       <c r="U30">
         <f ca="1">RAND()</f>
-        <v>0.70555706541508711</v>
+        <v>0.84164736293709352</v>
       </c>
       <c r="V30" t="s">
         <v>507</v>
@@ -16905,7 +16905,7 @@
         <v>520</v>
       </c>
       <c r="Z30" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AA30" t="s">
         <v>520</v>
@@ -16971,7 +16971,7 @@
       </c>
       <c r="U31">
         <f ca="1">RAND()</f>
-        <v>0.76279929323107443</v>
+        <v>0.15610118951764329</v>
       </c>
       <c r="V31" t="s">
         <v>507</v>
@@ -16986,7 +16986,7 @@
         <v>566</v>
       </c>
       <c r="Z31" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AA31" t="s">
         <v>520</v>
@@ -17052,7 +17052,7 @@
       </c>
       <c r="U32" s="9">
         <f ca="1">RAND()</f>
-        <v>0.83716265459579509</v>
+        <v>0.19207267357414348</v>
       </c>
       <c r="V32" t="s">
         <v>507</v>
@@ -17133,7 +17133,7 @@
       </c>
       <c r="U33" s="9">
         <f ca="1">RAND()</f>
-        <v>0.76526229222336994</v>
+        <v>0.5091451699199887</v>
       </c>
       <c r="V33" t="s">
         <v>507</v>
@@ -17214,7 +17214,7 @@
       </c>
       <c r="U34" s="9">
         <f ca="1">RAND()</f>
-        <v>0.5952969035315806</v>
+        <v>0.53138253611919162</v>
       </c>
       <c r="V34" t="s">
         <v>507</v>
@@ -17295,7 +17295,7 @@
       </c>
       <c r="U35" s="9">
         <f ca="1">RAND()</f>
-        <v>0.79662249905931748</v>
+        <v>0.64124240510724984</v>
       </c>
       <c r="V35" t="s">
         <v>507</v>
@@ -17310,7 +17310,7 @@
         <v>520</v>
       </c>
       <c r="Z35" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AA35" t="s">
         <v>520</v>
@@ -17376,7 +17376,7 @@
       </c>
       <c r="U36" s="9">
         <f ca="1">RAND()</f>
-        <v>0.32491880186054645</v>
+        <v>0.64967902897863761</v>
       </c>
       <c r="V36" t="s">
         <v>507</v>
@@ -17391,7 +17391,7 @@
         <v>566</v>
       </c>
       <c r="Z36" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AA36" t="s">
         <v>520</v>
@@ -17457,7 +17457,7 @@
       </c>
       <c r="U37" s="9">
         <f ca="1">RAND()</f>
-        <v>0.24868419305620304</v>
+        <v>0.73351491439101524</v>
       </c>
       <c r="V37" t="s">
         <v>507</v>
@@ -17472,7 +17472,7 @@
         <v>566</v>
       </c>
       <c r="Z37" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AA37" t="s">
         <v>520</v>
@@ -17538,7 +17538,7 @@
       </c>
       <c r="U38" s="9">
         <f ca="1">RAND()</f>
-        <v>0.32427521095247969</v>
+        <v>0.44458675859312813</v>
       </c>
       <c r="V38" t="s">
         <v>507</v>
@@ -17553,7 +17553,7 @@
         <v>566</v>
       </c>
       <c r="Z38" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AA38" t="s">
         <v>520</v>
@@ -17619,7 +17619,7 @@
       </c>
       <c r="U39" s="9">
         <f ca="1">RAND()</f>
-        <v>0.11735503126154623</v>
+        <v>0.61525829490722361</v>
       </c>
       <c r="V39" t="s">
         <v>507</v>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="U40" s="9">
         <f ca="1">RAND()</f>
-        <v>3.0968152166520491E-2</v>
+        <v>0.94736241601019866</v>
       </c>
       <c r="V40" t="s">
         <v>507</v>
@@ -17715,7 +17715,7 @@
         <v>566</v>
       </c>
       <c r="Z40" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AA40" t="s">
         <v>520</v>
@@ -17781,7 +17781,7 @@
       </c>
       <c r="U41" s="9">
         <f ca="1">RAND()</f>
-        <v>0.69678829660878105</v>
+        <v>0.35222041925896419</v>
       </c>
       <c r="V41" t="s">
         <v>507</v>
@@ -17796,7 +17796,7 @@
         <v>566</v>
       </c>
       <c r="Z41" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AA41" t="s">
         <v>520</v>
@@ -17862,7 +17862,7 @@
       </c>
       <c r="U42" s="9">
         <f ca="1">RAND()</f>
-        <v>0.62518604375426412</v>
+        <v>1.7883328470871263E-2</v>
       </c>
       <c r="V42" t="s">
         <v>507</v>
@@ -17943,7 +17943,7 @@
       </c>
       <c r="U43">
         <f ca="1">RAND()</f>
-        <v>0.37239187441922106</v>
+        <v>0.72243620250794305</v>
       </c>
       <c r="V43" t="s">
         <v>507</v>
@@ -18024,7 +18024,7 @@
       </c>
       <c r="U44" s="9">
         <f ca="1">RAND()</f>
-        <v>0.73777035613081987</v>
+        <v>0.29788433672737868</v>
       </c>
       <c r="V44" t="s">
         <v>507</v>
@@ -18105,7 +18105,7 @@
       </c>
       <c r="U45" s="9">
         <f ca="1">RAND()</f>
-        <v>0.78336682087272247</v>
+        <v>0.97143329101973597</v>
       </c>
       <c r="V45" t="s">
         <v>507</v>
@@ -18120,7 +18120,7 @@
         <v>568</v>
       </c>
       <c r="Z45" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AA45" t="s">
         <v>520</v>
@@ -18186,7 +18186,7 @@
       </c>
       <c r="U46" s="9">
         <f ca="1">RAND()</f>
-        <v>0.1347387320639154</v>
+        <v>0.91173516843214553</v>
       </c>
       <c r="V46" t="s">
         <v>507</v>
@@ -18267,7 +18267,7 @@
       </c>
       <c r="U47" s="9">
         <f ca="1">RAND()</f>
-        <v>0.294810716019547</v>
+        <v>0.14121874929000278</v>
       </c>
       <c r="V47" t="s">
         <v>507</v>
@@ -18282,7 +18282,7 @@
         <v>520</v>
       </c>
       <c r="Z47" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AA47" t="s">
         <v>520</v>
@@ -18348,7 +18348,7 @@
       </c>
       <c r="U48" s="9">
         <f ca="1">RAND()</f>
-        <v>7.1477689031938185E-2</v>
+        <v>0.87856317742665768</v>
       </c>
       <c r="V48" t="s">
         <v>507</v>
@@ -18363,7 +18363,7 @@
         <v>566</v>
       </c>
       <c r="Z48" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AA48" t="s">
         <v>520</v>
@@ -18429,7 +18429,7 @@
       </c>
       <c r="U49" s="9">
         <f ca="1">RAND()</f>
-        <v>0.17702983669052907</v>
+        <v>0.59949157215665005</v>
       </c>
       <c r="V49" t="s">
         <v>507</v>
@@ -18444,7 +18444,7 @@
         <v>566</v>
       </c>
       <c r="Z49" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AA49" t="s">
         <v>520</v>
@@ -18510,7 +18510,7 @@
       </c>
       <c r="U50" s="9">
         <f ca="1">RAND()</f>
-        <v>0.48418156380482957</v>
+        <v>0.25827873029709036</v>
       </c>
       <c r="V50" t="s">
         <v>507</v>
@@ -18591,7 +18591,7 @@
       </c>
       <c r="U51">
         <f ca="1">RAND()</f>
-        <v>0.97679908593694298</v>
+        <v>0.64753610937832262</v>
       </c>
       <c r="V51" t="s">
         <v>507</v>
@@ -18704,7 +18704,7 @@
         <v>367</v>
       </c>
       <c r="B3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -18788,7 +18788,7 @@
         <v>367</v>
       </c>
       <c r="B3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -18948,7 +18948,7 @@
         <v>367</v>
       </c>
       <c r="B3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -19161,8 +19161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19176,7 +19176,7 @@
         <v>367</v>
       </c>
       <c r="B3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -19229,7 +19229,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="B10" s="9">
         <v>1</v>
@@ -19270,7 +19270,7 @@
   <dimension ref="A3:B17"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19284,7 +19284,7 @@
         <v>367</v>
       </c>
       <c r="B3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -19305,7 +19305,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B6" s="9">
         <v>3</v>
@@ -19313,7 +19313,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B7" s="9">
         <v>1</v>
@@ -19321,7 +19321,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B8" s="9">
         <v>1</v>
@@ -19337,7 +19337,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="B10" s="9">
         <v>9</v>
@@ -19361,7 +19361,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B13" s="9">
         <v>3</v>
@@ -19369,7 +19369,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B14" s="9">
         <v>1</v>
@@ -19385,7 +19385,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="B16" s="9">
         <v>5</v>
@@ -19424,7 +19424,7 @@
         <v>367</v>
       </c>
       <c r="B3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -19445,7 +19445,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
@@ -19461,7 +19461,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="B8" s="9">
         <v>1</v>
@@ -19485,7 +19485,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B11" s="9">
         <v>2</v>
@@ -19493,7 +19493,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B12" s="9">
         <v>1</v>
@@ -19509,7 +19509,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B14" s="9">
         <v>1</v>
@@ -19517,7 +19517,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="B15" s="9">
         <v>3</v>
@@ -19541,7 +19541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -19556,7 +19556,7 @@
         <v>367</v>
       </c>
       <c r="B3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
